--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,82 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.2869338083146007y_1 + 0.3716357245100446y_2</t>
-  </si>
-  <si>
-    <t>-0.08480776593522377</t>
+    <t>0.9261226324359138y_1 + 1.2878727323431254y_2</t>
+  </si>
+  <si>
+    <t>7.033987934013765</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.24011722556595838</t>
+  </si>
+  <si>
+    <t>0.07558256144476648</t>
+  </si>
+  <si>
+    <t>0.4651782448218301</t>
+  </si>
+  <si>
+    <t>-4 + 2.182352534978767y_1 + 0.790562119032984y_2</t>
+  </si>
+  <si>
+    <t>7.834642533158952</t>
+  </si>
+  <si>
+    <t>0.1083236165390392</t>
+  </si>
+  <si>
+    <t>0.2470951773333938</t>
+  </si>
+  <si>
+    <t>0.7055993983218097</t>
+  </si>
+  <si>
+    <t>-16 - 2x + 3.918163688312682y_1 - 0.7233534683711851y_2</t>
+  </si>
+  <si>
+    <t>-11.029067106621255</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.668826785333615</t>
-  </si>
-  <si>
-    <t>0.45431458518070245</t>
-  </si>
-  <si>
-    <t>0.8218084309941561</t>
-  </si>
-  <si>
-    <t>-4 + 0.2869338083146007y_1 - 0.3716357245100446y_2</t>
-  </si>
-  <si>
-    <t>-3.9151922340647762</t>
-  </si>
-  <si>
-    <t>0.35490416055703744</t>
-  </si>
-  <si>
-    <t>0.10178942102153064</t>
-  </si>
-  <si>
-    <t>0.31680062490037586</t>
-  </si>
-  <si>
-    <t>-16 - 2x + 1.4346690415730041y_1 - 1.8581786225502228y_2</t>
-  </si>
-  <si>
-    <t>-26.34994490126746</t>
-  </si>
-  <si>
-    <t>0.2579054977982502</t>
-  </si>
-  <si>
-    <t>0.017673204237491406</t>
-  </si>
-  <si>
-    <t>0.3206445811758578</t>
-  </si>
-  <si>
-    <t>-48 + 8x + 0.2869338083146007y_1 - 0.3716357245100446y_2</t>
-  </si>
-  <si>
-    <t>-4.819257310290432</t>
-  </si>
-  <si>
-    <t>0.37312343383402724</t>
-  </si>
-  <si>
-    <t>0.7122051554927713</t>
-  </si>
-  <si>
-    <t>0.306789613492331</t>
-  </si>
-  <si>
-    <t>12 - 2x - 0.5738676166292014y_1 + 0.7432714490200892y_2</t>
-  </si>
-  <si>
-    <t>1.0564007371859665</t>
-  </si>
-  <si>
-    <t>0.9717867614749729</t>
-  </si>
-  <si>
-    <t>0.3910716398908155</t>
-  </si>
-  <si>
-    <t>0.9536156378735784</t>
+    <t>0.1102758390135593</t>
+  </si>
+  <si>
+    <t>0.7030203816296596</t>
+  </si>
+  <si>
+    <t>0.4629380383277565</t>
+  </si>
+  <si>
+    <t>-48 + 8x + 2.849178486278314y_1 + 1.2364251941225317y_2</t>
+  </si>
+  <si>
+    <t>14.885176000561037</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.3168885247170169</t>
+  </si>
+  <si>
+    <t>0.4962459620630362</t>
+  </si>
+  <si>
+    <t>0.9567530584293187</t>
+  </si>
+  <si>
+    <t>12 - 2x + 0.44656643466775314y_1 + 1.6358596000140058y_2</t>
+  </si>
+  <si>
+    <t>5.784706167175495</t>
+  </si>
+  <si>
+    <t>0.4167665579899481</t>
+  </si>
+  <si>
+    <t>0.1244067936023273</t>
+  </si>
+  <si>
+    <t>0.40092091135914876</t>
   </si>
   <si>
     <t>x</t>
@@ -153,34 +159,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.386991865471793</t>
-  </si>
-  <si>
-    <t>4.081261346001524</t>
-  </si>
-  <si>
-    <t>2.9228731878030403</t>
+    <t>5.875357499928848</t>
+  </si>
+  <si>
+    <t>4.657691821664619</t>
+  </si>
+  <si>
+    <t>2.112315956957238</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.1706812057386693</t>
-  </si>
-  <si>
-    <t>-0.22106573612751468</t>
+    <t>-0.9798430273700574</t>
+  </si>
+  <si>
+    <t>-1.3886890951177908</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-3.880151555685557</t>
-  </si>
-  <si>
-    <t>3.0958638012425777</t>
-  </si>
-  <si>
-    <t>-2.1241624799752095</t>
+    <t>-1.3151133460403157</t>
+  </si>
+  <si>
+    <t>-1.8332456561310178</t>
+  </si>
+  <si>
+    <t>-2.6012356331310738</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -665,56 +671,56 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -732,24 +738,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -767,17 +773,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -795,22 +801,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -828,17 +834,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.8040998106310089</v>
+        <v>0.2602775476670889</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.4190806115711734</v>
+        <v>0.17403064105926536</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,88 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>0.9261226324359138y_1 + 1.2878727323431254y_2</t>
-  </si>
-  <si>
-    <t>7.033987934013765</t>
+    <t>0.01514095315217201y_1 + 0.9127063484843593y_2</t>
+  </si>
+  <si>
+    <t>2.2456891574731968</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.24011722556595838</t>
-  </si>
-  <si>
-    <t>0.07558256144476648</t>
-  </si>
-  <si>
-    <t>0.4651782448218301</t>
-  </si>
-  <si>
-    <t>-4 + 2.182352534978767y_1 + 0.790562119032984y_2</t>
-  </si>
-  <si>
-    <t>7.834642533158952</t>
-  </si>
-  <si>
-    <t>0.1083236165390392</t>
-  </si>
-  <si>
-    <t>0.2470951773333938</t>
-  </si>
-  <si>
-    <t>0.7055993983218097</t>
-  </si>
-  <si>
-    <t>-16 - 2x + 3.918163688312682y_1 - 0.7233534683711851y_2</t>
-  </si>
-  <si>
-    <t>-11.029067106621255</t>
+    <t>0.0866877650392671</t>
+  </si>
+  <si>
+    <t>0.16392888961395025</t>
+  </si>
+  <si>
+    <t>0.5256365753464083</t>
+  </si>
+  <si>
+    <t>-4 + 0.4641757826909333y_1 - 0.48175592097931874y_2</t>
+  </si>
+  <si>
+    <t>-3.115964380723809</t>
+  </si>
+  <si>
+    <t>0.9648587319705634</t>
+  </si>
+  <si>
+    <t>0.9400307632963608</t>
+  </si>
+  <si>
+    <t>0.019517476239305102</t>
+  </si>
+  <si>
+    <t>-16 - 2x - 1.1497178456235067y_1 + 2.06720325974616y_2</t>
+  </si>
+  <si>
+    <t>-27.854581994052488</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.1102758390135593</t>
-  </si>
-  <si>
-    <t>0.7030203816296596</t>
-  </si>
-  <si>
-    <t>0.4629380383277565</t>
-  </si>
-  <si>
-    <t>-48 + 8x + 2.849178486278314y_1 + 1.2364251941225317y_2</t>
-  </si>
-  <si>
-    <t>14.885176000561037</t>
+    <t>0.9761226555169311</t>
+  </si>
+  <si>
+    <t>0.6645676367532283</t>
+  </si>
+  <si>
+    <t>0.4658746234119081</t>
+  </si>
+  <si>
+    <t>-48 + 8x + 1.1821095518371985y_1 + 0.1637334633829287y_2</t>
+  </si>
+  <si>
+    <t>4.57854615527611</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.3168885247170169</t>
-  </si>
-  <si>
-    <t>0.4962459620630362</t>
-  </si>
-  <si>
-    <t>0.9567530584293187</t>
-  </si>
-  <si>
-    <t>12 - 2x + 0.44656643466775314y_1 + 1.6358596000140058y_2</t>
-  </si>
-  <si>
-    <t>5.784706167175495</t>
-  </si>
-  <si>
-    <t>0.4167665579899481</t>
-  </si>
-  <si>
-    <t>0.1244067936023273</t>
-  </si>
-  <si>
-    <t>0.40092091135914876</t>
+    <t>0.8143958706897286</t>
+  </si>
+  <si>
+    <t>0.21445557599747056</t>
+  </si>
+  <si>
+    <t>0.8360641848199136</t>
+  </si>
+  <si>
+    <t>12 - 2x - 0.3895597410918963y_1 + 1.4479359182545817y_2</t>
+  </si>
+  <si>
+    <t>1.9983186674708953</t>
+  </si>
+  <si>
+    <t>0.23927405565041526</t>
+  </si>
+  <si>
+    <t>0.9861708887310502</t>
+  </si>
+  <si>
+    <t>0.5737634833120397</t>
   </si>
   <si>
     <t>x</t>
@@ -159,34 +159,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.875357499928848</t>
-  </si>
-  <si>
-    <t>4.657691821664619</t>
-  </si>
-  <si>
-    <t>2.112315956957238</t>
+    <t>5.875840352759835</t>
+  </si>
+  <si>
+    <t>4.382729079133727</t>
+  </si>
+  <si>
+    <t>2.387767396848251</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.9798430273700574</t>
-  </si>
-  <si>
-    <t>-1.3886890951177908</t>
+    <t>0.8035954455273624</t>
+  </si>
+  <si>
+    <t>-2.111935357803988</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.3151133460403157</t>
-  </si>
-  <si>
-    <t>-1.8332456561310178</t>
-  </si>
-  <si>
-    <t>-2.6012356331310738</t>
+    <t>2.5858324429887922</t>
+  </si>
+  <si>
+    <t>3.4559062079095257</t>
+  </si>
+  <si>
+    <t>-4.533575742678566</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -839,12 +839,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.2602775476670889</v>
+        <v>0.6289406846527845</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.17403064105926536</v>
+        <v>0.5654763054531662</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,88 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>0.01514095315217201y_1 + 0.9127063484843593y_2</t>
-  </si>
-  <si>
-    <t>2.2456891574731968</t>
+    <t>-2.9128815680460503 + 0.15422855349071463y_1 + 0.6354648928176064y_2</t>
+  </si>
+  <si>
+    <t>2.9128815680460503</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.0866877650392671</t>
-  </si>
-  <si>
-    <t>0.16392888961395025</t>
-  </si>
-  <si>
-    <t>0.5256365753464083</t>
-  </si>
-  <si>
-    <t>-4 + 0.4641757826909333y_1 - 0.48175592097931874y_2</t>
-  </si>
-  <si>
-    <t>-3.115964380723809</t>
-  </si>
-  <si>
-    <t>0.9648587319705634</t>
-  </si>
-  <si>
-    <t>0.9400307632963608</t>
-  </si>
-  <si>
-    <t>0.019517476239305102</t>
-  </si>
-  <si>
-    <t>-16 - 2x - 1.1497178456235067y_1 + 2.06720325974616y_2</t>
-  </si>
-  <si>
-    <t>-27.854581994052488</t>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>-21.393257458149904 + 2.579393529463101y_1 + 0.8695410773557548y_2</t>
+  </si>
+  <si>
+    <t>17.393257458149904</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>70.47052973353095 - 2x - 7.347310071313453y_1 - 0.5956431104918103y_2</t>
+  </si>
+  <si>
+    <t>-86.47052973353095</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9761226555169311</t>
-  </si>
-  <si>
-    <t>0.6645676367532283</t>
-  </si>
-  <si>
-    <t>0.4658746234119081</t>
-  </si>
-  <si>
-    <t>-48 + 8x + 1.1821095518371985y_1 + 0.1637334633829287y_2</t>
-  </si>
-  <si>
-    <t>4.57854615527611</t>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>-65.69063996964684 + 8x + 0.8257491743606533y_1 - 0.0959344506799863y_2</t>
+  </si>
+  <si>
+    <t>17.000639969646844</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.8143958706897286</t>
-  </si>
-  <si>
-    <t>0.21445557599747056</t>
-  </si>
-  <si>
-    <t>0.8360641848199136</t>
-  </si>
-  <si>
-    <t>12 - 2x - 0.3895597410918963y_1 + 1.4479359182545817y_2</t>
-  </si>
-  <si>
-    <t>1.9983186674708953</t>
-  </si>
-  <si>
-    <t>0.23927405565041526</t>
-  </si>
-  <si>
-    <t>0.9861708887310502</t>
-  </si>
-  <si>
-    <t>0.5737634833120397</t>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.3000000000000003</t>
+  </si>
+  <si>
+    <t>6.1925984835838275 - 2x + 0.6179237578818615y_1 + 1.4413078199944613y_2</t>
+  </si>
+  <si>
+    <t>5.777401516416172</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>4.2</t>
   </si>
   <si>
     <t>x</t>
@@ -159,34 +159,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.875840352759835</t>
-  </si>
-  <si>
-    <t>4.382729079133727</t>
-  </si>
-  <si>
-    <t>2.387767396848251</t>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.35</t>
+  </si>
+  <si>
+    <t>2.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.8035954455273624</t>
-  </si>
-  <si>
-    <t>-2.111935357803988</t>
+    <t>3.705004906248311</t>
+  </si>
+  <si>
+    <t>-1.3591773332603108</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.5858324429887922</t>
-  </si>
-  <si>
-    <t>3.4559062079095257</t>
-  </si>
-  <si>
-    <t>-4.533575742678566</t>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>35.248135740989916</t>
+  </si>
+  <si>
+    <t>-18.17939328454424</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -839,12 +839,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6289406846527845</v>
+        <v>2.975681822770921</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.5654763054531662</v>
+        <v>1.6382728748545337</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,88 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-2.9128815680460503 + 0.15422855349071463y_1 + 0.6354648928176064y_2</t>
-  </si>
-  <si>
-    <t>2.9128815680460503</t>
+    <t>-12.266066838046278 + 1.053984575835476y_1 + 1.208226221079692y_2</t>
+  </si>
+  <si>
+    <t>12.266066838046278</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>-21.393257458149904 + 2.579393529463101y_1 + 0.8695410773557548y_2</t>
-  </si>
-  <si>
-    <t>17.393257458149904</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>70.47052973353095 - 2x - 7.347310071313453y_1 - 0.5956431104918103y_2</t>
-  </si>
-  <si>
-    <t>-86.47052973353095</t>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
+  </si>
+  <si>
+    <t>-16.59125964010283 + 1.7866323907455013y_1 + 0.46272493573264795y_2</t>
+  </si>
+  <si>
+    <t>12.59125964010283</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>54.89266508652872 - 2x - 4.895630031679144y_1 + 0.5319823343063854y_2</t>
+  </si>
+  <si>
+    <t>-70.89266508652872</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>-65.69063996964684 + 8x + 0.8257491743606533y_1 - 0.0959344506799863y_2</t>
-  </si>
-  <si>
-    <t>17.000639969646844</t>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>-65.30201371036847 + 8x + 0.9854327335047129y_1 - 0.00856898029134534y_2</t>
+  </si>
+  <si>
+    <t>17.252013710368466</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.02</t>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>2.3000000000000003</t>
-  </si>
-  <si>
-    <t>6.1925984835838275 - 2x + 0.6179237578818615y_1 + 1.4413078199944613y_2</t>
-  </si>
-  <si>
-    <t>5.777401516416172</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>4.2</t>
+    <t>11.024293059125966 - 2x - 0.1863753213367607y_1 + 1.0668380462724938y_2</t>
+  </si>
+  <si>
+    <t>-0.9757069408740331</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
   </si>
   <si>
     <t>x</t>
@@ -159,34 +159,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>7.35</t>
-  </si>
-  <si>
-    <t>2.8</t>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>8.600000000000001</t>
+  </si>
+  <si>
+    <t>2.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.705004906248311</t>
-  </si>
-  <si>
-    <t>-1.3591773332603108</t>
+    <t>0.2912322701565502</t>
+  </si>
+  <si>
+    <t>-1.9886868999079117</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>35.248135740989916</t>
-  </si>
-  <si>
-    <t>-18.17939328454424</t>
+    <t>11.000000000000002</t>
+  </si>
+  <si>
+    <t>41.58000207395175</t>
+  </si>
+  <si>
+    <t>-18.388234074146023</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -839,12 +839,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.975681822770921</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.6382728748545337</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,88 +66,85 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-12.266066838046278 + 1.053984575835476y_1 + 1.208226221079692y_2</t>
-  </si>
-  <si>
-    <t>12.266066838046278</t>
+    <t>-11.536615846038488 + 1.47796384237274y_1 + 2.022827626426727y_2</t>
+  </si>
+  <si>
+    <t>11.536615846038488</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>3.5999999999999996</t>
-  </si>
-  <si>
-    <t>-16.59125964010283 + 1.7866323907455013y_1 + 0.46272493573264795y_2</t>
-  </si>
-  <si>
-    <t>12.59125964010283</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>54.89266508652872 - 2x - 4.895630031679144y_1 + 0.5319823343063854y_2</t>
-  </si>
-  <si>
-    <t>-70.89266508652872</t>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>9.200000000000001</t>
+  </si>
+  <si>
+    <t>-11.892526868282928 + 2.0328251270515705y_1 + 0.8431225526951597y_2</t>
+  </si>
+  <si>
+    <t>7.892526868282929</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>20.08147963009248 - 2x - 1.5596100974756308y_1 + 1.9105223694076479y_2</t>
+  </si>
+  <si>
+    <t>-36.08147963009248</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>-65.30201371036847 + 8x + 0.9854327335047129y_1 - 0.00856898029134534y_2</t>
-  </si>
-  <si>
-    <t>17.252013710368466</t>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>-77.59739065233691 + 8x + 2.1144713821544614y_1 + 0.9097725568607851y_2</t>
+  </si>
+  <si>
+    <t>29.237390652336913</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>11.024293059125966 - 2x - 0.1863753213367607y_1 + 1.0668380462724938y_2</t>
-  </si>
-  <si>
-    <t>-0.9757069408740331</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>0.8999999999999999</t>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>7.199999999999999</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>6.26836290927268 - 2x + 0.9147713071732069y_1 + 2.3794051487128223y_2</t>
+  </si>
+  <si>
+    <t>5.25163709072732</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.7000000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -159,34 +156,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>8.600000000000001</t>
-  </si>
-  <si>
-    <t>2.65</t>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.2912322701565502</t>
-  </si>
-  <si>
-    <t>-1.9886868999079117</t>
+    <t>-1.355911022244439</t>
+  </si>
+  <si>
+    <t>-3.4840089977505624</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>11.000000000000002</t>
-  </si>
-  <si>
-    <t>41.58000207395175</t>
-  </si>
-  <si>
-    <t>-18.388234074146023</t>
+    <t>-54.4</t>
+  </si>
+  <si>
+    <t>-36.65175372823461</t>
+  </si>
+  <si>
+    <t>-25.193268349579277</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -720,7 +717,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -738,24 +735,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -773,17 +770,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -801,22 +798,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -834,17 +831,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.04</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
   </sheetData>
